--- a/Player stats A. Omgba (2).xlsx
+++ b/Player stats A. Omgba (2).xlsx
@@ -67,7 +67,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:U20"/>
+  <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView windowProtection="false" tabSelected="false" showWhiteSpace="false" showOutlineSymbols="false" showFormulas="false" rightToLeft="false" showZeros="true" showRuler="true" showRowColHeaders="true" showGridLines="true" defaultGridColor="true" zoomScale="100" workbookViewId="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" zoomScaleNormal="0"/>
   </sheetViews>
@@ -76,7 +76,7 @@
     <col min="1" max="1" bestFit="true" customWidth="true" width="28.389887640449437"/>
     <col min="2" max="2" bestFit="true" customWidth="true" width="18.48988764044944"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="11.88988764044944"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="7.489887640449439"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.78988764044944"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="12.989887640449439"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="5.289887640449439"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="4.189887640449439"/>
@@ -206,7 +206,7 @@
     <row ht="12" customHeight="true" r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Den Bosch - NAC Breda 2:2</t>
+          <t>NAC Breda - ADO Den Haag 2:2</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -216,7 +216,7 @@
       </c>
       <c r="C2" s="0" t="inlineStr">
         <is>
-          <t>2024-04-19</t>
+          <t>2024-05-03</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
@@ -225,10 +225,10 @@
         </is>
       </c>
       <c r="E2" s="0" t="n">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>0</v>
@@ -237,49 +237,49 @@
         <v>3</v>
       </c>
       <c r="I2" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J2" s="0" t="n">
-        <v>0.07</v>
+        <v>0.7</v>
       </c>
       <c r="K2" s="0" t="n">
         <v>2</v>
       </c>
       <c r="L2" s="0" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M2" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N2" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O2" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="P2" s="0" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="Q2" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="R2" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="R2" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="S2" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="U2" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>NAC Breda - Dordrecht 1:4</t>
+          <t>NAC Breda - PSV II 2:0</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -289,70 +289,70 @@
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>2024-04-12</t>
+          <t>2024-04-28</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
         <is>
-          <t>AMF</t>
+          <t>CF</t>
         </is>
       </c>
       <c r="E3" s="0" t="n">
-        <v>99</v>
+        <v>34</v>
       </c>
       <c r="F3" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>1</v>
       </c>
       <c r="J3" s="0" t="n">
-        <v>0.15</v>
+        <v>0.29</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L3" s="0" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="O3" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P3" s="0" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="0" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="R3" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T3" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U3" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Groningen - NAC Breda 1:1</t>
+          <t>Den Bosch - NAC Breda 2:2</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -362,7 +362,7 @@
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>2024-04-07</t>
+          <t>2024-04-19</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
@@ -371,7 +371,7 @@
         </is>
       </c>
       <c r="E4" s="0" t="n">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>0</v>
@@ -380,52 +380,52 @@
         <v>0</v>
       </c>
       <c r="H4" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" s="0" t="n">
-        <v>0.19</v>
+        <v>0.07</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L4" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O4" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P4" s="0" t="n">
         <v>10</v>
       </c>
       <c r="Q4" s="0" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R4" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S4" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T4" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="U4" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>NAC Breda - VVV Venlo 1:0</t>
+          <t>NAC Breda - Dordrecht 1:4</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -435,7 +435,7 @@
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>2024-03-15</t>
+          <t>2024-04-12</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
@@ -444,61 +444,61 @@
         </is>
       </c>
       <c r="E5" s="0" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F5" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="I5" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J5" s="0" t="n">
-        <v>0.41</v>
+        <v>0.15</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L5" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P5" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="Q5" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="R5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="O5" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="P5" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="R5" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T5" s="0" t="n">
-        <v>10</v>
-      </c>
       <c r="U5" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>Ajax II - NAC Breda 0:1</t>
+          <t>Groningen - NAC Breda 1:1</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -508,7 +508,7 @@
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>2024-03-08</t>
+          <t>2024-04-07</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
@@ -517,7 +517,7 @@
         </is>
       </c>
       <c r="E6" s="0" t="n">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="F6" s="0" t="n">
         <v>0</v>
@@ -529,40 +529,40 @@
         <v>2</v>
       </c>
       <c r="I6" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="0" t="n">
-        <v>0.25</v>
+        <v>0.19</v>
       </c>
       <c r="K6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O6" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="P6" s="0" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q6" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R6" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S6" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T6" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U6" s="0" t="n">
         <v>2</v>
@@ -571,7 +571,7 @@
     <row ht="12" customHeight="true" r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>NAC Breda - Utrecht II 3:1</t>
+          <t>NAC Breda - VVV Venlo 1:0</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>2024-03-01</t>
+          <t>2024-03-15</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
@@ -590,61 +590,61 @@
         </is>
       </c>
       <c r="E7" s="0" t="n">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="F7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I7" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J7" s="0" t="n">
-        <v>0.14</v>
+        <v>0.41</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O7" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="P7" s="0" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="0" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R7" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S7" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T7" s="0" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="U7" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>AZ II - NAC Breda 2:3</t>
+          <t>Ajax II - NAC Breda 0:1</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -654,7 +654,7 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>2024-02-26</t>
+          <t>2024-03-08</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
@@ -663,61 +663,61 @@
         </is>
       </c>
       <c r="E8" s="0" t="n">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" s="0" t="n">
-        <v>0.16</v>
+        <v>0.25</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M8" s="0" t="n">
         <v>0</v>
       </c>
       <c r="N8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="P8" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q8" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="R8" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="O8" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="P8" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="Q8" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="0" t="n">
-        <v>3</v>
-      </c>
       <c r="S8" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="U8" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>NAC Breda - Cambuur 1:2</t>
+          <t>NAC Breda - Utrecht II 3:1</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -727,7 +727,7 @@
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>2024-02-19</t>
+          <t>2024-03-01</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
@@ -736,61 +736,61 @@
         </is>
       </c>
       <c r="E9" s="0" t="n">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="F9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="G9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9" s="0" t="n">
         <v>2</v>
       </c>
       <c r="I9" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="0" t="n">
-        <v>0.04</v>
+        <v>0.14</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9" s="0" t="n">
         <v>1</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O9" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P9" s="0" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="Q9" s="0" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="R9" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S9" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T9" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="U9" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>NAC Breda - De Graafschap 0:0</t>
+          <t>AZ II - NAC Breda 2:3</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -800,7 +800,7 @@
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>2024-02-02</t>
+          <t>2024-02-26</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
@@ -809,25 +809,25 @@
         </is>
       </c>
       <c r="E10" s="0" t="n">
-        <v>61</v>
+        <v>99</v>
       </c>
       <c r="F10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="0" t="n">
-        <v>0.0</v>
+        <v>0.16</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>0</v>
@@ -836,22 +836,22 @@
         <v>0</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O10" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P10" s="0" t="n">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R10" s="0" t="n">
         <v>3</v>
       </c>
       <c r="S10" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T10" s="0" t="n">
         <v>2</v>
@@ -863,7 +863,7 @@
     <row ht="12" customHeight="true" r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>NAC Breda - Willem II 1:2</t>
+          <t>NAC Breda - Cambuur 1:2</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
@@ -873,7 +873,7 @@
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>2023-12-22</t>
+          <t>2024-02-19</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="E11" s="0" t="n">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="F11" s="0" t="n">
         <v>0</v>
@@ -891,52 +891,52 @@
         <v>0</v>
       </c>
       <c r="H11" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="0" t="n">
-        <v>0.0</v>
+        <v>0.04</v>
       </c>
       <c r="K11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L11" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O11" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="P11" s="0" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R11" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T11" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U11" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>ADO Den Haag - NAC Breda 3:1</t>
+          <t>Telstar - NAC Breda 1:1</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
@@ -946,12 +946,12 @@
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>2023-12-15</t>
+          <t>2024-02-16</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>AMF</t>
+          <t>LAMF, RCMF</t>
         </is>
       </c>
       <c r="E12" s="0" t="n">
@@ -964,34 +964,34 @@
         <v>1</v>
       </c>
       <c r="H12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J12" s="0" t="n">
-        <v>0.0</v>
+        <v>0.01</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O12" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P12" s="0" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="R12" s="0" t="n">
         <v>2</v>
@@ -1000,16 +1000,16 @@
         <v>0</v>
       </c>
       <c r="T12" s="0" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="U12" s="0" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>NAC Breda - TOP Oss 2:0</t>
+          <t>NAC Breda - Eindhoven 2:2</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
@@ -1019,70 +1019,70 @@
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>2023-12-08</t>
+          <t>2024-02-09</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>AMF</t>
+          <t>LCMF3</t>
         </is>
       </c>
       <c r="E13" s="0" t="n">
         <v>97</v>
       </c>
       <c r="F13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="0" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="I13" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13" s="0" t="n">
-        <v>0.89</v>
+        <v>0.0</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="0" t="n">
         <v>5</v>
       </c>
       <c r="O13" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P13" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q13" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="Q13" s="0" t="n">
+      <c r="R13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="R13" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="S13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T13" s="0" t="n">
-        <v>4</v>
-      </c>
       <c r="U13" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>PSV II - NAC Breda 0:5</t>
+          <t>NAC Breda - De Graafschap 0:0</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>2023-12-04</t>
+          <t>2024-02-02</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
@@ -1101,7 +1101,7 @@
         </is>
       </c>
       <c r="E14" s="0" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="F14" s="0" t="n">
         <v>0</v>
@@ -1119,34 +1119,34 @@
         <v>0.0</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O14" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R14" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S14" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T14" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U14" s="0" t="n">
         <v>0</v>
@@ -1155,7 +1155,7 @@
     <row ht="12" customHeight="true" r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>MVV - NAC Breda 1:4</t>
+          <t>NAC Breda - Willem II 1:2</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
@@ -1165,37 +1165,37 @@
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>2023-11-19</t>
+          <t>2023-12-22</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>AMF</t>
+          <t>AMF, RAMF</t>
         </is>
       </c>
       <c r="E15" s="0" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F15" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I15" s="0" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J15" s="0" t="n">
-        <v>0.37</v>
+        <v>0.1</v>
       </c>
       <c r="K15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L15" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M15" s="0" t="n">
         <v>1</v>
@@ -1204,22 +1204,22 @@
         <v>3</v>
       </c>
       <c r="O15" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P15" s="0" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R15" s="0" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S15" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T15" s="0" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="U15" s="0" t="n">
         <v>2</v>
@@ -1228,7 +1228,7 @@
     <row ht="12" customHeight="true" r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>NAC Breda - Ajax II 1:1</t>
+          <t>ADO Den Haag - NAC Breda 3:1</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>2023-11-10</t>
+          <t>2023-12-15</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
@@ -1247,43 +1247,43 @@
         </is>
       </c>
       <c r="E16" s="0" t="n">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F16" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L16" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="I16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" s="0" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="K16" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" s="0" t="n">
-        <v>1</v>
-      </c>
       <c r="O16" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P16" s="0" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R16" s="0" t="n">
         <v>2</v>
@@ -1292,26 +1292,26 @@
         <v>0</v>
       </c>
       <c r="T16" s="0" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="U16" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>NAC Breda - MVV 1:0</t>
+          <t>NAC Breda - TOP Oss 2:0</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>Netherlands. Play-offs 1/2</t>
+          <t>Netherlands. Eerste Divisie</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>2023-05-23</t>
+          <t>2023-12-08</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
@@ -1320,61 +1320,61 @@
         </is>
       </c>
       <c r="E17" s="0" t="n">
-        <v>20</v>
+        <v>96</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I17" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" s="0" t="n">
-        <v>0.0</v>
+        <v>0.89</v>
       </c>
       <c r="K17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="L17" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O17" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="P17" s="0" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="R17" s="0" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="S17" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T17" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="U17" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>NAC Breda - Heracles 0:3</t>
+          <t>PSV II - NAC Breda 0:5</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
@@ -1384,7 +1384,7 @@
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>2023-05-12</t>
+          <t>2023-12-04</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
@@ -1393,7 +1393,7 @@
         </is>
       </c>
       <c r="E18" s="0" t="n">
-        <v>4</v>
+        <v>70</v>
       </c>
       <c r="F18" s="0" t="n">
         <v>0</v>
@@ -1411,31 +1411,31 @@
         <v>0.0</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18" s="0" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q18" s="0" t="n">
         <v>1</v>
       </c>
       <c r="R18" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="S18" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18" s="0" t="n">
         <v>0</v>
@@ -1447,7 +1447,7 @@
     <row ht="12" customHeight="true" r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>Utrecht II - NAC Breda 4:1</t>
+          <t>NAC Breda - Den Bosch 1:0</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
@@ -1457,16 +1457,16 @@
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>2023-02-20</t>
+          <t>2023-11-24</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>AMF</t>
+          <t>LCMF</t>
         </is>
       </c>
       <c r="E19" s="0" t="n">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="F19" s="0" t="n">
         <v>0</v>
@@ -1475,52 +1475,52 @@
         <v>0</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="J19" s="0" t="n">
-        <v>0.0</v>
+        <v>0.19</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>1</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P19" s="0" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="R19" s="0" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="S19" s="0" t="n">
         <v>0</v>
       </c>
       <c r="T19" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U19" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row ht="12" customHeight="true" r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>NAC Breda - PSV II 2:1</t>
+          <t>MVV - NAC Breda 1:4</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>2023-01-06</t>
+          <t>2023-11-19</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
@@ -1539,55 +1539,418 @@
         </is>
       </c>
       <c r="E20" s="0" t="n">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I20" s="0" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J20" s="0" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="K20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="M20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P20" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="Q20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="S20" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="U20" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="true" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>NAC Breda - Ajax II 1:1</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>Netherlands. Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>2023-11-10</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>AMF</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>101</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S21" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="U21" s="0" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="true" r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>De Graafschap - NAC Breda 1:0</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>Netherlands. Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>2023-11-03</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>LCMF3</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>97</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="K20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="U20" s="0" t="n">
-        <v>0</v>
+      <c r="K22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="O22" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="P22" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="Q22" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="R22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="S22" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="T22" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="U22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="true" r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>NAC Breda - Helmond Sport 1:1</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>Netherlands. Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>2023-10-27</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>RCMF3</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>31</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="O23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="U23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="true" r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>NAC Breda - Telstar 3:1</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>Netherlands. Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>2023-10-20</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K24" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="R24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T24" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U24" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row ht="12" customHeight="true" r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>Cambuur - NAC Breda 2:3</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>Netherlands. Eerste Divisie</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>2023-10-15</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>RW</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>16</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="H25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="R25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" s="0" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
